--- a/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
+++ b/InputData/elec/BHRbEF/BAU Heat Rate by Electricity Fuel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\InputData\elec\BHRbEF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-poland - WIP\InputData\elec\BHRbEF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7890" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>BAU Heat Rate by Electricity Fuel</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>Table 12</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>ENERGETYCZNA PERSPEKTYWA WĘGLA BRUNATNEGO W KONTEKŚCIE EUROPEJSKIEGO SYSTEMU HANDLU EMISJAMI (ETS)**</t>
   </si>
 </sst>
 </file>
@@ -287,14 +299,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,58 +455,56 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -505,6 +523,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5797C81A-02A9-4148-B875-44920301A66C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2194560"/>
+          <a:ext cx="4998720" cy="3415515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,21 +839,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.7265625" customWidth="1"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,118 +861,121 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2014</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -918,12 +988,12 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2004</v>
       </c>
@@ -955,7 +1025,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -981,7 +1051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>74</v>
       </c>
@@ -1004,7 +1074,7 @@
         <v>12462</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -1033,7 +1103,7 @@
         <v>85600</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1071,65 +1141,65 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
       <c r="F6">
-        <f>SUM(F5:F5)</f>
+        <f t="shared" ref="F6:K6" si="1">SUM(F5:F5)</f>
         <v>3365.4</v>
       </c>
       <c r="G6">
-        <f>SUM(G5:G5)</f>
+        <f t="shared" si="1"/>
         <v>4904.1000000000004</v>
       </c>
       <c r="H6">
-        <f>SUM(H5:H5)</f>
+        <f t="shared" si="1"/>
         <v>5905.2</v>
       </c>
       <c r="I6">
-        <f>SUM(I5:I5)</f>
+        <f t="shared" si="1"/>
         <v>7148.4</v>
       </c>
       <c r="J6">
-        <f>SUM(J5:J5)</f>
+        <f t="shared" si="1"/>
         <v>9528.7000000000007</v>
       </c>
       <c r="K6">
-        <f>SUM(K5:K5)</f>
+        <f t="shared" si="1"/>
         <v>7923.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>F6*$B$10/F4</f>
         <v>0.33510648890855788</v>
       </c>
-      <c r="G7" s="11">
-        <f t="shared" ref="G7:K7" si="1">G6*$B$10/G4</f>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:K7" si="2">G6*$B$10/G4</f>
         <v>0.33218732948237911</v>
       </c>
-      <c r="H7" s="11">
-        <f t="shared" si="1"/>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
         <v>0.33092137420027712</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" si="1"/>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
         <v>0.3352252921177068</v>
       </c>
-      <c r="J7" s="11">
-        <f t="shared" si="1"/>
+      <c r="J7" s="9">
+        <f t="shared" si="2"/>
         <v>0.33050698525869548</v>
       </c>
-      <c r="K7" s="11">
-        <f t="shared" si="1"/>
+      <c r="K7" s="9">
+        <f t="shared" si="2"/>
         <v>0.33323130841121495</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -1146,503 +1216,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>45</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="17">
         <v>8800</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>-1.0141174378723861E-3</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>124</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>12.1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>47</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>545.19600855310046</v>
       </c>
       <c r="J6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>40</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>6200</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>-1.8819628140518407E-3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>113</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>9.7000000000000011</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>45</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>358</v>
       </c>
       <c r="J7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>45</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>7750</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>-1.8386031282128235E-3</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>113</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>9.7000000000000011</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>49</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>358</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>40</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <v>8900</v>
       </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
         <v>159</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>11.6</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>44</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>358</v>
       </c>
       <c r="J9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>30</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="17">
         <v>3000</v>
       </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>87</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>5.8</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>44</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>205</v>
       </c>
       <c r="J10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>30</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>4000</v>
       </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
         <v>87</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>5.8</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>57.999999999999993</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>205</v>
       </c>
       <c r="J11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>30</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>4000</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
         <v>159</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>5.8</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>57.999999999999993</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>205</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>60</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>18450</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
         <v>287</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>4</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>36</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>20</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>5500</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>-4.0823799331761723E-3</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>200</v>
       </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
         <v>100</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>0</v>
       </c>
       <c r="J14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>20</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>12299.999999999998</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>-1.0711788675244582E-2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>600</v>
       </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
+      <c r="G15" s="17">
         <v>100</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>0</v>
       </c>
       <c r="J15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>20</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>5944.9999999999991</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>-1.8041235161963209E-2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>115</v>
       </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
         <v>100</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>20</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="17">
         <v>7584.9999999999991</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>-1.7852377847928036E-2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>70</v>
       </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
         <v>100</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>80</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="17">
         <v>18000</v>
       </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
         <v>650</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>11.6</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>100</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>30</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="17">
         <v>15000</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>-1.7179401454748944E-2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>800</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>8</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>48</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>30</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="17">
         <v>10000</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>-1.8819628140518407E-3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>159</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>11.6</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>36</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>0</v>
       </c>
       <c r="J20" t="s">
@@ -1656,33 +1728,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>28</v>
       </c>
@@ -1696,16 +1768,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>0.36</v>
       </c>
-      <c r="C3" s="11">
-        <f>AVERAGEIF('New Units'!$J$6:$J$20,'Poland Heat Rates'!A3,'New Units'!$G$6:$G$20)/100</f>
-        <v>0.46250000000000002</v>
+      <c r="C3" s="9">
+        <f>AVERAGEIF('New Units'!$J$7:$J$20,'Poland Heat Rates'!A3,'New Units'!$G$7:$G$20)/100</f>
+        <v>0.46</v>
       </c>
       <c r="D3">
         <f>$B$9/B3</f>
@@ -1713,17 +1785,17 @@
       </c>
       <c r="E3">
         <f>$B$9/C3</f>
-        <v>7377603.524324324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7417699.1956521729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>0.34</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>AVERAGEIF('New Units'!$J$6:$J$20,'Poland Heat Rates'!A4,'New Units'!$G$6:$G$20)/100</f>
         <v>0.52</v>
       </c>
@@ -1736,14 +1808,14 @@
         <v>6561810.8269230761</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>0.36</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>B5</f>
         <v>0.36</v>
       </c>
@@ -1756,15 +1828,15 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <f>C6</f>
         <v>0.36</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f>'New Units'!G13/100</f>
         <v>0.36</v>
       </c>
@@ -1777,15 +1849,15 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <f>AVERAGE(Biomass!F7:K7)</f>
         <v>0.33286312972980525</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f>AVERAGEIF('New Units'!$J$6:$J$20,'Poland Heat Rates'!A7,'New Units'!$G$6:$G$20)/100</f>
         <v>0.36</v>
       </c>
@@ -1798,12 +1870,37 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
         <v>3412141.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="10">
+        <f>'New Units'!G6/100</f>
+        <v>0.47</v>
+      </c>
+      <c r="D11">
+        <f>B9/B11</f>
+        <v>8530354.0749999993</v>
+      </c>
+      <c r="E11">
+        <f>B9/C11</f>
+        <v>7259875.8085106388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1812,6 +1909,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1822,19 +1920,19 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1858,10 +1956,10 @@
       </c>
       <c r="D2">
         <f>'Poland Heat Rates'!E3</f>
-        <v>7377603.524324324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7417699.1956521729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1877,7 +1975,7 @@
         <v>6561810.8269230761</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1991,7 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1921,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1949,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +2063,7 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +2093,7 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2011,16 +2109,37 @@
         <v>9478171.194444444</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="6">
+        <f>'Poland Heat Rates'!D11</f>
+        <v>8530354.0749999993</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>'Poland Heat Rates'!E11</f>
+        <v>7259875.8085106388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="21">
+        <v>0</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:D14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>